--- a/biology/Botanique/Strelitzia_reginae/Strelitzia_reginae.xlsx
+++ b/biology/Botanique/Strelitzia_reginae/Strelitzia_reginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Strelitzia reginae est une espèce de plantes ornementales de la famille des Strelitziaceae originaire d'Afrique du Sud. C'est le plus connu des oiseaux de paradis car on le trouve facilement chez les fleuristes.
 Son nom provient de la forme curieuse de ses fleurs qui ressemble à une tête d'oiseau. Il est très courant dans les massifs publics dans les régions au climat doux ou dans les jardins tropicaux et subtropicaux. Cette plante originaire d'Afrique préfère les sols riches en matière organique, il est donc conseillé de lui apporter du compost. Excepté dans le sud et sur les côtes bretonnes, l'oiseau de paradis doit être cultivé en bac et il doit hiverner dans une véranda où la température ne descendra pas en dessous de 10 °C. Durant cette période, il est préférable de poursuivre l'arrosage en veillant à ce que le terreau ne dessèche pas complètement. En extérieur, en dessous de −2 °C, les feuilles s'abîment et finissent par disparaître. Il est possible que la souche reparte au retour du printemps.
@@ -513,7 +525,9 @@
           <t>Informations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Catégorie : vivace en climat tropical
 Feuillage : persistant
